--- a/testdata/tc001.xlsx
+++ b/testdata/tc001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SELENIUM_REDO_CODINGS\MavenProject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105E0B4-A34F-4154-BEF0-40DCB6FD67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DF1D9C-DF73-4A16-B1E3-7C92BEF158BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6B6AF526-0F9F-4078-ABE9-5B215B26CFAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6B6AF526-0F9F-4078-ABE9-5B215B26CFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="MakeMyTrip" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Demosalesmanager</t>
   </si>
@@ -118,6 +119,21 @@
   </si>
   <si>
     <t>Muthu</t>
+  </si>
+  <si>
+    <t>fromplace</t>
+  </si>
+  <si>
+    <t>toPlace</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -547,15 +563,15 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122))</f>
-        <v>Gvslf</v>
+        <v>Mctei</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122))</f>
-        <v>Vokpt</v>
+        <v>Wefny</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122))</f>
-        <v>Yinuq</v>
+        <v>Khvkz</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -582,15 +598,15 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:H3" ca="1" si="0">CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122)) &amp; CHAR(RANDBETWEEN(97,122))</f>
-        <v>Uexei</v>
+        <v>Xxhso</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Pzmwo</v>
+        <v>Tjwac</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Zzsuy</v>
+        <v>Dtsna</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -717,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8D98EF-990C-44D6-8438-236F6C3EEBB0}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -776,4 +792,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6424228-AB25-49ED-9FE6-22E56025F423}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>